--- a/klassegr/klassegrenser_PPTI.xlsx
+++ b/klassegr/klassegrenser_PPTI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351807F5-48A6-45C1-8615-48A2B27772EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204258EF-C3B3-4A6D-A1CE-9CC00006451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -517,7 +517,7 @@
         <v>2.09</v>
       </c>
       <c r="I2">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -575,7 +575,7 @@
         <v>1.9</v>
       </c>
       <c r="I4">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -604,7 +604,7 @@
         <v>2.09</v>
       </c>
       <c r="I5">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -633,7 +633,7 @@
         <v>1.8</v>
       </c>
       <c r="I6">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="I8">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -720,7 +720,7 @@
         <v>1.7</v>
       </c>
       <c r="I9">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>1.7</v>
       </c>
       <c r="I10">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -778,7 +778,7 @@
         <v>1.7</v>
       </c>
       <c r="I11">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -807,7 +807,7 @@
         <v>1.7</v>
       </c>
       <c r="I12">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -836,7 +836,7 @@
         <v>1.7</v>
       </c>
       <c r="I13">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -865,7 +865,7 @@
         <v>1.8</v>
       </c>
       <c r="I14">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -894,7 +894,7 @@
         <v>1.8</v>
       </c>
       <c r="I15">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_PPTI.xlsx
+++ b/klassegr/klassegrenser_PPTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204258EF-C3B3-4A6D-A1CE-9CC00006451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EF0D9-6FCC-4934-8661-A0EF407F7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -496,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -525,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -554,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -583,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -612,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -641,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -670,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -699,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -728,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -757,7 +759,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -786,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -815,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -844,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -873,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>4</v>

--- a/klassegr/klassegrenser_PPTI.xlsx
+++ b/klassegr/klassegrenser_PPTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINA\OkoTilst\Pilot25\ecRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EF0D9-6FCC-4934-8661-A0EF407F7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF82937-F282-427D-B0C1-1FE00729C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>typ</t>
   </si>
@@ -65,30 +65,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>LN1</t>
-  </si>
-  <si>
-    <t>LN2a</t>
-  </si>
-  <si>
-    <t>LN2b</t>
-  </si>
-  <si>
-    <t>LN3</t>
-  </si>
-  <si>
-    <t>LN5</t>
-  </si>
-  <si>
-    <t>LN6</t>
-  </si>
-  <si>
-    <t>LN8</t>
-  </si>
-  <si>
-    <t>LN7</t>
-  </si>
-  <si>
     <t>L301</t>
   </si>
   <si>
@@ -105,6 +81,63 @@
   </si>
   <si>
     <t>L306</t>
+  </si>
+  <si>
+    <t>L107</t>
+  </si>
+  <si>
+    <t>L109</t>
+  </si>
+  <si>
+    <t>L104</t>
+  </si>
+  <si>
+    <t>L105a</t>
+  </si>
+  <si>
+    <t>L207</t>
+  </si>
+  <si>
+    <t>L105b</t>
+  </si>
+  <si>
+    <t>L106</t>
+  </si>
+  <si>
+    <t>L208</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>L102</t>
+  </si>
+  <si>
+    <t>L201</t>
+  </si>
+  <si>
+    <t>L202</t>
+  </si>
+  <si>
+    <t>L204</t>
+  </si>
+  <si>
+    <t>L205</t>
+  </si>
+  <si>
+    <t>L103</t>
+  </si>
+  <si>
+    <t>L203</t>
+  </si>
+  <si>
+    <t>L206</t>
+  </si>
+  <si>
+    <t>L108</t>
+  </si>
+  <si>
+    <t>L110</t>
   </si>
 </sst>
 </file>
@@ -160,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,11 +489,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -495,7 +526,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -524,7 +555,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -533,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="E3">
-        <v>2.5099999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="F3">
-        <v>2.34</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G3">
-        <v>2.17</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="I3">
         <v>1.1599999999999999</v>
@@ -553,7 +584,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -562,19 +593,19 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="E4">
-        <v>2.4300000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F4">
-        <v>2.2599999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="G4">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1.1599999999999999</v>
@@ -582,7 +613,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -591,19 +622,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="E5">
-        <v>2.6</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F5">
-        <v>2.4300000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="G5">
-        <v>2.2599999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="H5">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1.1599999999999999</v>
@@ -611,7 +642,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -620,19 +651,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2.5099999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="E6">
-        <v>2.34</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F6">
-        <v>2.17</v>
+        <v>2.34</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="H6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1.1599999999999999</v>
@@ -640,7 +671,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -649,19 +680,19 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E7">
-        <v>2.5099999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7">
-        <v>2.34</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G7">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I7">
         <v>1.1599999999999999</v>
@@ -669,7 +700,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -678,19 +709,19 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="E8">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="F8">
-        <v>2.56</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G8">
-        <v>2.39</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H8">
-        <v>2.2200000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="I8">
         <v>1.1599999999999999</v>
@@ -698,7 +729,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -707,19 +738,19 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2.41</v>
+        <v>2.86</v>
       </c>
       <c r="E9">
-        <v>2.2400000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="F9">
-        <v>2.0699999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G9">
-        <v>1.9</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H9">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="I9">
         <v>1.1599999999999999</v>
@@ -727,7 +758,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -736,19 +767,19 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2.41</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E10">
-        <v>2.2400000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="F10">
-        <v>2.0699999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="G10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
         <v>1.1599999999999999</v>
@@ -756,7 +787,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -765,19 +796,19 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2.41</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E11">
-        <v>2.2400000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="F11">
-        <v>2.0699999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I11">
         <v>1.1599999999999999</v>
@@ -785,7 +816,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -794,19 +825,19 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>2.41</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E12">
-        <v>2.2400000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="F12">
-        <v>2.0699999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="G12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I12">
         <v>1.1599999999999999</v>
@@ -814,7 +845,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -823,19 +854,19 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>2.41</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E13">
-        <v>2.2400000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="F13">
-        <v>2.0699999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="G13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
         <v>1.1599999999999999</v>
@@ -843,7 +874,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -872,7 +903,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -896,6 +927,325 @@
         <v>1.8</v>
       </c>
       <c r="I15">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2.69</v>
+      </c>
+      <c r="E16">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F16">
+        <v>2.34</v>
+      </c>
+      <c r="G16">
+        <v>2.17</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2.69</v>
+      </c>
+      <c r="E17">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F17">
+        <v>2.34</v>
+      </c>
+      <c r="G17">
+        <v>2.17</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2.69</v>
+      </c>
+      <c r="E18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F18">
+        <v>2.34</v>
+      </c>
+      <c r="G18">
+        <v>2.17</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3.07</v>
+      </c>
+      <c r="E19">
+        <v>2.73</v>
+      </c>
+      <c r="F19">
+        <v>2.56</v>
+      </c>
+      <c r="G19">
+        <v>2.39</v>
+      </c>
+      <c r="H19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I19">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3.07</v>
+      </c>
+      <c r="E20">
+        <v>2.73</v>
+      </c>
+      <c r="F20">
+        <v>2.56</v>
+      </c>
+      <c r="G20">
+        <v>2.39</v>
+      </c>
+      <c r="H20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I20">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2.41</v>
+      </c>
+      <c r="E21">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G21">
+        <v>1.9</v>
+      </c>
+      <c r="H21">
+        <v>1.7</v>
+      </c>
+      <c r="I21">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2.41</v>
+      </c>
+      <c r="E22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G22">
+        <v>1.9</v>
+      </c>
+      <c r="H22">
+        <v>1.7</v>
+      </c>
+      <c r="I22">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2.41</v>
+      </c>
+      <c r="E23">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F23">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G23">
+        <v>1.9</v>
+      </c>
+      <c r="H23">
+        <v>1.7</v>
+      </c>
+      <c r="I23">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2.41</v>
+      </c>
+      <c r="E24">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F24">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G24">
+        <v>1.9</v>
+      </c>
+      <c r="H24">
+        <v>1.7</v>
+      </c>
+      <c r="I24">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E25">
+        <v>2.34</v>
+      </c>
+      <c r="F25">
+        <v>2.17</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1.8</v>
+      </c>
+      <c r="I25">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E26">
+        <v>2.34</v>
+      </c>
+      <c r="F26">
+        <v>2.17</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1.8</v>
+      </c>
+      <c r="I26">
         <v>1.1599999999999999</v>
       </c>
     </row>

--- a/klassegr/klassegrenser_PPTI.xlsx
+++ b/klassegr/klassegrenser_PPTI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINA\OkoTilst\Pilot25\ecRxiv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WXXX_999\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF82937-F282-427D-B0C1-1FE00729C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB67C68-4295-4052-8032-E5F31E9E2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -41,30 +41,6 @@
     <t>typ</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>SD_nedre</t>
-  </si>
-  <si>
-    <t>SD_D</t>
-  </si>
-  <si>
-    <t>D_M</t>
-  </si>
-  <si>
-    <t>M_G</t>
-  </si>
-  <si>
-    <t>G_SG</t>
-  </si>
-  <si>
-    <t>SG_øvre</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>L301</t>
   </si>
   <si>
@@ -138,6 +114,30 @@
   </si>
   <si>
     <t>L110</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -500,33 +502,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -555,7 +557,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -584,7 +586,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -613,7 +615,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -642,7 +644,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -671,7 +673,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -700,7 +702,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -729,7 +731,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -758,7 +760,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -787,7 +789,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -816,7 +818,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -845,7 +847,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -874,7 +876,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -903,7 +905,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -932,7 +934,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -961,7 +963,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -990,7 +992,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1019,7 +1021,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1048,7 +1050,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1077,7 +1079,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1106,7 +1108,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1135,7 +1137,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1193,7 +1195,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1222,7 +1224,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>5</v>
